--- a/icd_files/86824.xlsx
+++ b/icd_files/86824.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B90C8-8A77-4DEB-8BE9-7D24AE113A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F375B-85CE-49AD-A86D-B25D3F7E0B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="461">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -666,6 +666,9 @@
     <t>03-09</t>
   </si>
   <si>
+    <t>03-10</t>
+  </si>
+  <si>
     <t>03-11</t>
   </si>
   <si>
@@ -675,9 +678,15 @@
     <t>03-13</t>
   </si>
   <si>
+    <t>03-14</t>
+  </si>
+  <si>
     <t>03-15</t>
   </si>
   <si>
+    <t>03-16</t>
+  </si>
+  <si>
     <t>03-18</t>
   </si>
   <si>
@@ -690,6 +699,27 @@
     <t>03-22</t>
   </si>
   <si>
+    <t>03-28</t>
+  </si>
+  <si>
+    <t>03-30</t>
+  </si>
+  <si>
+    <t>03-31</t>
+  </si>
+  <si>
+    <t>04-17</t>
+  </si>
+  <si>
+    <t>04-20</t>
+  </si>
+  <si>
+    <t>04-22</t>
+  </si>
+  <si>
+    <t>04-27</t>
+  </si>
+  <si>
     <t>05-01</t>
   </si>
   <si>
@@ -705,9 +735,21 @@
     <t>05-30</t>
   </si>
   <si>
+    <t>05-31</t>
+  </si>
+  <si>
     <t>06-01</t>
   </si>
   <si>
+    <t>06-02</t>
+  </si>
+  <si>
+    <t>06-03</t>
+  </si>
+  <si>
+    <t>06-04</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -720,10 +762,106 @@
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
+    <t>Phenytoin Sodium Extended</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Piperacillin-Tazobactam</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Timolol Maleate 0.5%</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>LaMOTrigine</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Carbamazepine XR</t>
+  </si>
+  <si>
     <t>Phenytoin (Suspension)</t>
   </si>
   <si>
-    <t>5% Dextrose</t>
+    <t>Carbamazepine</t>
+  </si>
+  <si>
+    <t>Polyethylene Glycol</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Fosphenytoin</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Cosyntropin</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Phenytoin Infatab</t>
+  </si>
+  <si>
+    <t>Potassium Chloride (Powder)</t>
   </si>
   <si>
     <t>23:06</t>
@@ -738,15 +876,48 @@
     <t>00:00</t>
   </si>
   <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>1-2 mL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>250 VIAL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
     <t>100 BAG</t>
   </si>
   <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
     <t>150 mL</t>
   </si>
   <si>
-    <t>1000 mL</t>
-  </si>
-  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -774,6 +945,15 @@
     <t>250 mL</t>
   </si>
   <si>
+    <t>15 mL</t>
+  </si>
+  <si>
+    <t>50 TAB</t>
+  </si>
+  <si>
+    <t>15-30 mL</t>
+  </si>
+  <si>
     <t>00:21</t>
   </si>
   <si>
@@ -789,6 +969,9 @@
     <t>20:05</t>
   </si>
   <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
     <t>00:04</t>
   </si>
   <si>
@@ -825,28 +1008,106 @@
     <t>16:06</t>
   </si>
   <si>
-    <t>100 mL</t>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1500 mL</t>
   </si>
   <si>
     <t>50 mL</t>
   </si>
   <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
     <t>25 mL</t>
   </si>
   <si>
-    <t>100 UDCUP</t>
+    <t>2000 mL</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1500 TAB</t>
+  </si>
+  <si>
+    <t>25 VIAL</t>
   </si>
   <si>
     <t>50 UDCUP</t>
   </si>
   <si>
+    <t>25 CAP</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
+  </si>
+  <si>
     <t>150 UDCUP</t>
   </si>
   <si>
+    <t>300 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>600 TAB</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>17 PKT</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>200 CAP</t>
+  </si>
+  <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
+    <t>10 SUPP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>1 DBTL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>500 mL</t>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>30 mL</t>
   </si>
   <si>
     <t>04:21</t>
@@ -865,6 +1126,12 @@
   </si>
   <si>
     <t>04:14</t>
+  </si>
+  <si>
+    <t>10 PKT</t>
+  </si>
+  <si>
+    <t>2000 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4325,7 +4592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000000-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5515,7 +5782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000001-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6705,7 +6972,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000002-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7943,7 +8210,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000003-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9178,7 +9445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000004-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10146,7 +10413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000005-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10830,7 +11097,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000006-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11517,7 +11784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000007-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12201,7 +12468,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000008-8DA9-4428-B74A-7149E732B67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12644,7 +12911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB48E59-78CE-466C-A116-685E66FF5FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B59505-C06A-462D-A450-90A497B15D10}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -12669,7 +12936,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12682,7 +12949,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -12695,7 +12962,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -12708,7 +12975,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -12721,27 +12988,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -12769,7 +13036,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -12797,11 +13064,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -12824,7 +13091,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12861,7 +13128,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -12884,14 +13151,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -12914,14 +13181,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>294</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -12944,14 +13211,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -12974,14 +13241,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13004,16 +13271,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13036,14 +13303,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13066,10 +13333,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13077,7 +13344,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13089,7 +13356,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13112,7 +13379,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13128,11 +13395,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13155,7 +13422,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13173,7 +13440,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13196,7 +13463,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13215,7 +13482,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13238,10 +13505,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13259,7 +13526,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13282,52 +13549,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13350,53 +13617,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -13419,43 +13686,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -13463,7 +13730,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -13486,43 +13753,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -13530,7 +13797,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -13553,43 +13820,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -13597,7 +13864,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -13620,43 +13887,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -13664,7 +13931,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -13687,43 +13954,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -13731,7 +13998,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -13754,43 +14021,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -13798,7 +14065,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -13821,43 +14088,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -13865,7 +14132,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -13888,43 +14155,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -13932,7 +14199,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -13955,43 +14222,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -13999,7 +14266,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14022,43 +14289,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14066,7 +14333,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14089,43 +14356,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14133,7 +14400,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14156,7 +14423,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14169,10 +14436,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14180,7 +14447,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14203,14 +14470,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14225,7 +14492,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14248,7 +14515,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14268,7 +14535,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14291,7 +14558,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14311,7 +14578,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14334,7 +14601,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14352,11 +14619,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14379,14 +14646,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -14409,14 +14676,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -14439,14 +14706,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -14469,14 +14736,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -14499,14 +14766,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -14529,14 +14796,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -14559,10 +14826,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -14579,7 +14846,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -14602,7 +14869,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -14620,7 +14887,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -14643,7 +14910,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -14661,7 +14928,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -14684,14 +14951,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -14714,14 +14981,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -14744,24 +15011,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -14784,7 +15051,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -14793,7 +15060,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -14816,14 +15083,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -14831,7 +15098,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -14854,7 +15121,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -14863,7 +15130,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -14886,14 +15153,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -14901,7 +15168,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -14924,7 +15191,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -14933,7 +15200,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -14956,24 +15223,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>350</v>
+        <v>439</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -14996,7 +15263,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15005,7 +15272,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15028,22 +15295,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>354</v>
+        <v>443</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15051,7 +15318,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15074,7 +15341,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15087,7 +15354,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15110,32 +15377,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15158,7 +15425,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15167,7 +15434,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15190,14 +15457,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>361</v>
+        <v>450</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15205,7 +15472,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>362</v>
+        <v>451</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15228,14 +15495,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>362</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15258,12 +15525,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15291,7 +15558,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15318,13 +15585,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15352,7 +15619,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>368</v>
+        <v>457</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -15464,7 +15731,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -15492,7 +15759,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -15520,7 +15787,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -20387,13 +20654,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BO38"/>
+  <dimension ref="A30:EC70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -20401,7 +20668,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>208</v>
       </c>
@@ -20430,10 +20697,10 @@
         <v>209</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>210</v>
@@ -20451,130 +20718,130 @@
         <v>210</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>211</v>
       </c>
       <c r="X31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AM31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC31" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AT31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="BH31" s="1" t="s">
         <v>225</v>
@@ -20583,630 +20850,2833 @@
         <v>225</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BK31" s="1" t="s">
         <v>226</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BM31" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BN31" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BO31" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DK31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DL31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DM31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DN31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DO31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DP31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DQ31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DS31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DU31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DV31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DW31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DX31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DY31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DZ31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EA31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="EB31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="E32" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" t="s">
+        <v>300</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="s">
+        <v>283</v>
+      </c>
+      <c r="N32" t="s">
+        <v>283</v>
+      </c>
+      <c r="O32" t="s">
+        <v>283</v>
+      </c>
+      <c r="P32" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>310</v>
+      </c>
+      <c r="R32" t="s">
+        <v>311</v>
+      </c>
+      <c r="S32" t="s">
+        <v>312</v>
+      </c>
+      <c r="T32" t="s">
+        <v>302</v>
+      </c>
+      <c r="U32" t="s">
+        <v>313</v>
+      </c>
+      <c r="V32" t="s">
+        <v>314</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>357</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>324</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>362</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>312</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>302</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>363</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>324</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>312</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>302</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>363</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>365</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>366</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>367</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>312</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>281</v>
+      </c>
+      <c r="R33" t="s">
+        <v>281</v>
+      </c>
+      <c r="S33" t="s">
+        <v>281</v>
+      </c>
+      <c r="T33" t="s">
+        <v>281</v>
+      </c>
+      <c r="U33" t="s">
+        <v>281</v>
+      </c>
+      <c r="V33" t="s">
+        <v>281</v>
+      </c>
+      <c r="X33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DS33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" t="s">
+        <v>301</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>301</v>
+      </c>
+      <c r="R34" t="s">
+        <v>301</v>
+      </c>
+      <c r="S34" t="s">
+        <v>301</v>
+      </c>
+      <c r="T34" t="s">
+        <v>301</v>
+      </c>
+      <c r="U34" t="s">
+        <v>301</v>
+      </c>
+      <c r="V34" t="s">
+        <v>301</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DH34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>301</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>301</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>364</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>364</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>364</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DR34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DS34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DW34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H32" t="s">
+      <c r="M36" t="s">
+        <v>306</v>
+      </c>
+      <c r="N36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>306</v>
+      </c>
+      <c r="P36" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>289</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>328</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CR36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CU36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CY36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DA36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DB36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DF36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DG36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DH36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DZ36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I32" t="s">
+      <c r="BS37" t="s">
+        <v>350</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>356</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>350</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J32" t="s">
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>284</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>289</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>289</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>289</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K32" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="BS39" t="s">
+        <v>351</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>351</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>351</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>347</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M32" t="s">
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N32" t="s">
+      <c r="BO42" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>353</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>353</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>353</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O32" t="s">
-        <v>245</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="BS43" t="s">
+        <v>354</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>354</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>354</v>
+      </c>
+      <c r="BV43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="BS44" t="s">
+        <v>354</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>354</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>354</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="R32" t="s">
+      <c r="BS45" t="s">
+        <v>355</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>355</v>
+      </c>
+      <c r="BU45" t="s">
+        <v>355</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="S32" t="s">
-        <v>241</v>
-      </c>
-      <c r="T32" t="s">
-        <v>252</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>337</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>337</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>337</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>358</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CA46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CB46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CE46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CP46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CT46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CV46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CW46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CY46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CZ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DA46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DB46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DC46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DD46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DE46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DF46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DG46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DH46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="V32" t="s">
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" t="s">
+        <v>297</v>
+      </c>
+      <c r="F47" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>334</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>328</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CM47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CN47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CP47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CR47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CS47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CT47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CU47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CV47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CW47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CX47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CY47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CZ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DA47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DF47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DG47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DH47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="W32" t="s">
+      <c r="BY48" t="s">
+        <v>359</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CA48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CB48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CD48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CE48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CF48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CG48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CJ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CM48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CN48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CP48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CR48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CT48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CU48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CV48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CW48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CY48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CZ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DA48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DB48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DC48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DD48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DE48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DF48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DG48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DH48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="X32" t="s">
+      <c r="W49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>335</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>338</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>335</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>331</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CJ49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CN49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CP49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CQ49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CR49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CS49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CT49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CU49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CV49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CW49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CY49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CZ49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DA49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DB49" t="s">
+        <v>331</v>
+      </c>
+      <c r="DC49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DD49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DE49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DF49" t="s">
+        <v>331</v>
+      </c>
+      <c r="DG49" t="s">
+        <v>331</v>
+      </c>
+      <c r="DH49" t="s">
+        <v>331</v>
+      </c>
+      <c r="EA49" t="s">
+        <v>315</v>
+      </c>
+      <c r="EB49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="BY50" t="s">
+        <v>360</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CE50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CG50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CJ50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CK50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CM50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CN50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CP50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CQ50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CR50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CS50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CT50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CU50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CV50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CW50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CX50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CY50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CZ50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DA50" t="s">
+        <v>360</v>
+      </c>
+      <c r="DB50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DC50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DD50" t="s">
+        <v>360</v>
+      </c>
+      <c r="DE50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DG50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="M51" t="s">
+        <v>307</v>
+      </c>
+      <c r="N51" t="s">
+        <v>307</v>
+      </c>
+      <c r="O51" t="s">
+        <v>309</v>
+      </c>
+      <c r="P51" t="s">
+        <v>309</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CV51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CW51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CX51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CY51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CZ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DA51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DB51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DC51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DE51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DF51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DG51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DH51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AA32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="BY52" t="s">
+        <v>294</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CA52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CE52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CJ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CK52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CM52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CP52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CR52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CS52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CT52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CU52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CV52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CW52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CX52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CY52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CZ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DA52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DB52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DC52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DD52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DE52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DF52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DG52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DH52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="BQ53" t="s">
+        <v>349</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>308</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CD53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CE53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CJ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CK53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CN53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CP53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CQ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CR53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CS53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CT53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CU53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CV53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CW53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CX53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CY53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CZ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DA53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DB53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DC53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DD53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DE53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DF53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DG53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DH53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DZ53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AD32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="AU54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>342</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>344</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>345</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AG32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="AU56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>329</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>340</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>329</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>343</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AI32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU32" t="s">
+      <c r="C57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>344</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP58" t="s">
+        <v>348</v>
+      </c>
+      <c r="DN58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" t="s">
+        <v>289</v>
+      </c>
+      <c r="W59" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>329</v>
+      </c>
+      <c r="DN61" t="s">
+        <v>329</v>
+      </c>
+      <c r="EC61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>330</v>
+      </c>
+      <c r="DT62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>333</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AV32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AZ32" t="s">
+      <c r="C64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" t="s">
+        <v>293</v>
+      </c>
+      <c r="E65" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BA32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BC32" t="s">
+      <c r="C66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BD32" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>276</v>
-      </c>
-      <c r="BJ32" t="s">
+      <c r="C67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M68" t="s">
+        <v>287</v>
+      </c>
+      <c r="N68" t="s">
+        <v>287</v>
+      </c>
+      <c r="O68" t="s">
+        <v>287</v>
+      </c>
+      <c r="P68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BK32" t="s">
+      <c r="M69" t="s">
+        <v>308</v>
+      </c>
+      <c r="N69" t="s">
+        <v>308</v>
+      </c>
+      <c r="O69" t="s">
+        <v>308</v>
+      </c>
+      <c r="P69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BL32" t="s">
-        <v>280</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" t="s">
-        <v>235</v>
-      </c>
-      <c r="G33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" t="s">
-        <v>235</v>
-      </c>
-      <c r="I33" t="s">
-        <v>235</v>
-      </c>
-      <c r="J33" t="s">
-        <v>235</v>
-      </c>
-      <c r="L33" t="s">
-        <v>235</v>
-      </c>
-      <c r="M33" t="s">
-        <v>235</v>
-      </c>
-      <c r="N33" t="s">
-        <v>235</v>
-      </c>
-      <c r="O33" t="s">
-        <v>235</v>
-      </c>
-      <c r="P33" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>235</v>
-      </c>
-      <c r="R33" t="s">
-        <v>235</v>
-      </c>
-      <c r="S33" t="s">
-        <v>242</v>
-      </c>
-      <c r="T33" t="s">
-        <v>235</v>
-      </c>
-      <c r="U33" t="s">
-        <v>235</v>
-      </c>
-      <c r="V33" t="s">
-        <v>235</v>
-      </c>
-      <c r="W33" t="s">
-        <v>235</v>
-      </c>
-      <c r="X33" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" t="s">
-        <v>244</v>
-      </c>
-      <c r="H34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I34" t="s">
-        <v>244</v>
-      </c>
-      <c r="J34" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M34" t="s">
-        <v>244</v>
-      </c>
-      <c r="N34" t="s">
-        <v>244</v>
-      </c>
-      <c r="O34" t="s">
-        <v>244</v>
-      </c>
-      <c r="P34" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>244</v>
-      </c>
-      <c r="R34" t="s">
-        <v>244</v>
-      </c>
-      <c r="S34" t="s">
-        <v>244</v>
-      </c>
-      <c r="T34" t="s">
-        <v>244</v>
-      </c>
-      <c r="U34" t="s">
-        <v>244</v>
-      </c>
-      <c r="V34" t="s">
-        <v>244</v>
-      </c>
-      <c r="W34" t="s">
-        <v>244</v>
-      </c>
-      <c r="X34" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>244</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>244</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>277</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>277</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>277</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" t="s">
-        <v>238</v>
-      </c>
-      <c r="K36" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>267</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>270</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>274</v>
+      <c r="DY70" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/86824.xlsx
+++ b/icd_files/86824.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B90C8-8A77-4DEB-8BE9-7D24AE113A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B526D-08B3-4A7C-9BBA-28193B7F921B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="461">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -666,6 +666,9 @@
     <t>03-09</t>
   </si>
   <si>
+    <t>03-10</t>
+  </si>
+  <si>
     <t>03-11</t>
   </si>
   <si>
@@ -675,9 +678,15 @@
     <t>03-13</t>
   </si>
   <si>
+    <t>03-14</t>
+  </si>
+  <si>
     <t>03-15</t>
   </si>
   <si>
+    <t>03-16</t>
+  </si>
+  <si>
     <t>03-18</t>
   </si>
   <si>
@@ -690,6 +699,27 @@
     <t>03-22</t>
   </si>
   <si>
+    <t>03-28</t>
+  </si>
+  <si>
+    <t>03-30</t>
+  </si>
+  <si>
+    <t>03-31</t>
+  </si>
+  <si>
+    <t>04-17</t>
+  </si>
+  <si>
+    <t>04-20</t>
+  </si>
+  <si>
+    <t>04-22</t>
+  </si>
+  <si>
+    <t>04-27</t>
+  </si>
+  <si>
     <t>05-01</t>
   </si>
   <si>
@@ -705,9 +735,21 @@
     <t>05-30</t>
   </si>
   <si>
+    <t>05-31</t>
+  </si>
+  <si>
     <t>06-01</t>
   </si>
   <si>
+    <t>06-02</t>
+  </si>
+  <si>
+    <t>06-03</t>
+  </si>
+  <si>
+    <t>06-04</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -720,10 +762,106 @@
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
+    <t>Phenytoin Sodium Extended</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Piperacillin-Tazobactam</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Timolol Maleate 0.5%</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>LaMOTrigine</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Carbamazepine XR</t>
+  </si>
+  <si>
     <t>Phenytoin (Suspension)</t>
   </si>
   <si>
-    <t>5% Dextrose</t>
+    <t>Carbamazepine</t>
+  </si>
+  <si>
+    <t>Polyethylene Glycol</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Fosphenytoin</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Cosyntropin</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Phenytoin Infatab</t>
+  </si>
+  <si>
+    <t>Potassium Chloride (Powder)</t>
   </si>
   <si>
     <t>23:06</t>
@@ -738,15 +876,48 @@
     <t>00:00</t>
   </si>
   <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>1-2 mL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>250 VIAL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
     <t>100 BAG</t>
   </si>
   <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
     <t>150 mL</t>
   </si>
   <si>
-    <t>1000 mL</t>
-  </si>
-  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -774,6 +945,15 @@
     <t>250 mL</t>
   </si>
   <si>
+    <t>15 mL</t>
+  </si>
+  <si>
+    <t>50 TAB</t>
+  </si>
+  <si>
+    <t>15-30 mL</t>
+  </si>
+  <si>
     <t>00:21</t>
   </si>
   <si>
@@ -789,6 +969,9 @@
     <t>20:05</t>
   </si>
   <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
     <t>00:04</t>
   </si>
   <si>
@@ -825,28 +1008,106 @@
     <t>16:06</t>
   </si>
   <si>
-    <t>100 mL</t>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1500 mL</t>
   </si>
   <si>
     <t>50 mL</t>
   </si>
   <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
     <t>25 mL</t>
   </si>
   <si>
-    <t>100 UDCUP</t>
+    <t>2000 mL</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1500 TAB</t>
+  </si>
+  <si>
+    <t>25 VIAL</t>
   </si>
   <si>
     <t>50 UDCUP</t>
   </si>
   <si>
+    <t>25 CAP</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
+  </si>
+  <si>
     <t>150 UDCUP</t>
   </si>
   <si>
+    <t>300 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>600 TAB</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>17 PKT</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>200 CAP</t>
+  </si>
+  <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
+    <t>10 SUPP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>1 DBTL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>500 mL</t>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>30 mL</t>
   </si>
   <si>
     <t>04:21</t>
@@ -865,6 +1126,12 @@
   </si>
   <si>
     <t>04:14</t>
+  </si>
+  <si>
+    <t>10 PKT</t>
+  </si>
+  <si>
+    <t>2000 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4325,7 +4592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000000-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5515,7 +5782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000001-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6705,7 +6972,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000002-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7943,7 +8210,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000003-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9178,7 +9445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000004-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10120,10 +10387,10 @@
                   <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="175">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="176">
                   <c:v>36.6</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>98.6</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>36.1</c:v>
@@ -10146,7 +10413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000005-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10830,7 +11097,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000006-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11517,7 +11784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000007-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12201,7 +12468,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-EFC6-4572-B257-4019F7F78D5E}"/>
+              <c16:uniqueId val="{00000008-D36E-47E1-8F0D-7CB45AD69F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12644,7 +12911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB48E59-78CE-466C-A116-685E66FF5FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33471834-838A-46FC-BA35-4383E72AC35E}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -12669,7 +12936,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12682,7 +12949,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -12695,7 +12962,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -12708,7 +12975,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -12721,27 +12988,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -12769,7 +13036,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -12797,11 +13064,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -12824,7 +13091,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>292</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12861,7 +13128,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -12884,14 +13151,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -12914,14 +13181,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>294</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -12944,14 +13211,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -12974,14 +13241,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13004,16 +13271,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13036,14 +13303,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13066,10 +13333,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13077,7 +13344,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13089,7 +13356,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13112,7 +13379,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13128,11 +13395,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13155,7 +13422,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13173,7 +13440,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13196,7 +13463,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13215,7 +13482,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13238,10 +13505,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13259,7 +13526,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13282,52 +13549,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13350,53 +13617,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -13419,43 +13686,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -13463,7 +13730,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -13486,43 +13753,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -13530,7 +13797,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -13553,43 +13820,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -13597,7 +13864,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -13620,43 +13887,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -13664,7 +13931,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -13687,43 +13954,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -13731,7 +13998,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -13754,43 +14021,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -13798,7 +14065,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -13821,43 +14088,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -13865,7 +14132,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -13888,43 +14155,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -13932,7 +14199,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -13955,43 +14222,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -13999,7 +14266,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14022,43 +14289,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14066,7 +14333,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14089,43 +14356,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14133,7 +14400,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14156,7 +14423,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14169,10 +14436,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14180,7 +14447,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14203,14 +14470,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14225,7 +14492,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14248,7 +14515,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14268,7 +14535,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14291,7 +14558,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14311,7 +14578,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14334,7 +14601,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14352,11 +14619,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14379,14 +14646,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -14409,14 +14676,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -14439,14 +14706,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -14469,14 +14736,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -14499,14 +14766,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -14529,14 +14796,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -14559,10 +14826,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -14579,7 +14846,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -14602,7 +14869,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -14620,7 +14887,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -14643,7 +14910,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -14661,7 +14928,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -14684,14 +14951,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -14714,14 +14981,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -14744,24 +15011,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -14784,7 +15051,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -14793,7 +15060,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -14816,14 +15083,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -14831,7 +15098,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -14854,7 +15121,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -14863,7 +15130,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -14886,14 +15153,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -14901,7 +15168,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -14924,7 +15191,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -14933,7 +15200,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -14956,24 +15223,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>350</v>
+        <v>439</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -14996,7 +15263,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15005,7 +15272,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15028,22 +15295,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>354</v>
+        <v>443</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15051,7 +15318,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15074,7 +15341,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15087,7 +15354,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15110,32 +15377,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15158,7 +15425,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15167,7 +15434,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15190,14 +15457,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>361</v>
+        <v>450</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15205,7 +15472,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>362</v>
+        <v>451</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15228,14 +15495,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>362</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15258,12 +15525,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15291,7 +15558,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15318,13 +15585,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15352,7 +15619,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>368</v>
+        <v>457</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -15464,7 +15731,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -15492,7 +15759,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -15520,7 +15787,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -19876,7 +20143,7 @@
         <v>98</v>
       </c>
       <c r="H177">
-        <v>36.6</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -19902,7 +20169,7 @@
         <v>98</v>
       </c>
       <c r="H178">
-        <v>98.6</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -20387,13 +20654,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BO38"/>
+  <dimension ref="A30:EC70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -20401,7 +20668,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>208</v>
       </c>
@@ -20430,10 +20697,10 @@
         <v>209</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>210</v>
@@ -20451,130 +20718,130 @@
         <v>210</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>211</v>
       </c>
       <c r="X31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AM31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC31" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AT31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="BH31" s="1" t="s">
         <v>225</v>
@@ -20583,630 +20850,2833 @@
         <v>225</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BK31" s="1" t="s">
         <v>226</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BM31" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BN31" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BO31" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DK31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DL31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DM31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DN31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DO31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DP31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DQ31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DS31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DU31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DV31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DW31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DX31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DY31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DZ31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EA31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="EB31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="E32" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" t="s">
+        <v>300</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="s">
+        <v>283</v>
+      </c>
+      <c r="N32" t="s">
+        <v>283</v>
+      </c>
+      <c r="O32" t="s">
+        <v>283</v>
+      </c>
+      <c r="P32" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>310</v>
+      </c>
+      <c r="R32" t="s">
+        <v>311</v>
+      </c>
+      <c r="S32" t="s">
+        <v>312</v>
+      </c>
+      <c r="T32" t="s">
+        <v>302</v>
+      </c>
+      <c r="U32" t="s">
+        <v>313</v>
+      </c>
+      <c r="V32" t="s">
+        <v>314</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>357</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>324</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>362</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>312</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>302</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>363</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>324</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>312</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>302</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>363</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>365</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>366</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>367</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>312</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>283</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>283</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>283</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>283</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>281</v>
+      </c>
+      <c r="R33" t="s">
+        <v>281</v>
+      </c>
+      <c r="S33" t="s">
+        <v>281</v>
+      </c>
+      <c r="T33" t="s">
+        <v>281</v>
+      </c>
+      <c r="U33" t="s">
+        <v>281</v>
+      </c>
+      <c r="V33" t="s">
+        <v>281</v>
+      </c>
+      <c r="X33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>325</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>325</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DS33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>325</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" t="s">
+        <v>301</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>301</v>
+      </c>
+      <c r="R34" t="s">
+        <v>301</v>
+      </c>
+      <c r="S34" t="s">
+        <v>301</v>
+      </c>
+      <c r="T34" t="s">
+        <v>301</v>
+      </c>
+      <c r="U34" t="s">
+        <v>301</v>
+      </c>
+      <c r="V34" t="s">
+        <v>301</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DH34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>301</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>301</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>301</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>364</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>364</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>364</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DR34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DS34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DU34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DV34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DW34" t="s">
+        <v>282</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H32" t="s">
+      <c r="M36" t="s">
+        <v>306</v>
+      </c>
+      <c r="N36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>306</v>
+      </c>
+      <c r="P36" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>289</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>287</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>328</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>287</v>
+      </c>
+      <c r="CR36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CU36" t="s">
+        <v>328</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CY36" t="s">
+        <v>289</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DA36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DB36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DF36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DG36" t="s">
+        <v>328</v>
+      </c>
+      <c r="DH36" t="s">
+        <v>289</v>
+      </c>
+      <c r="DZ36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I32" t="s">
+      <c r="BS37" t="s">
+        <v>350</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>356</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>350</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J32" t="s">
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>284</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>289</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>289</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>289</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K32" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="BS39" t="s">
+        <v>351</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>351</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>351</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>347</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M32" t="s">
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N32" t="s">
+      <c r="BO42" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>353</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>353</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>353</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O32" t="s">
-        <v>245</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="BS43" t="s">
+        <v>354</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>354</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>354</v>
+      </c>
+      <c r="BV43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="BS44" t="s">
+        <v>354</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>354</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>354</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="R32" t="s">
+      <c r="BS45" t="s">
+        <v>355</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>355</v>
+      </c>
+      <c r="BU45" t="s">
+        <v>355</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="S32" t="s">
-        <v>241</v>
-      </c>
-      <c r="T32" t="s">
-        <v>252</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>337</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>337</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>337</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>358</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CA46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CB46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CE46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CP46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CT46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CV46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CW46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CY46" t="s">
+        <v>358</v>
+      </c>
+      <c r="CZ46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DA46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DB46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DC46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DD46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DE46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DF46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DG46" t="s">
+        <v>358</v>
+      </c>
+      <c r="DH46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="V32" t="s">
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" t="s">
+        <v>297</v>
+      </c>
+      <c r="F47" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>334</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>328</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CM47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CN47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CP47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CR47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CS47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CT47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CU47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CV47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CW47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CX47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CY47" t="s">
+        <v>328</v>
+      </c>
+      <c r="CZ47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DA47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DF47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DG47" t="s">
+        <v>328</v>
+      </c>
+      <c r="DH47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:130" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="W32" t="s">
+      <c r="BY48" t="s">
+        <v>359</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CA48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CB48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CD48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CE48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CF48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CG48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CJ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CM48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CN48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CP48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CR48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CT48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CU48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CV48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CW48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CY48" t="s">
+        <v>359</v>
+      </c>
+      <c r="CZ48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DA48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DB48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DC48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DD48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DE48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DF48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DG48" t="s">
+        <v>359</v>
+      </c>
+      <c r="DH48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="X32" t="s">
+      <c r="W49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>335</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>338</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>338</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>335</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>331</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CJ49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CN49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CP49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CQ49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CR49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CS49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CT49" t="s">
+        <v>335</v>
+      </c>
+      <c r="CU49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CV49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CW49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CY49" t="s">
+        <v>331</v>
+      </c>
+      <c r="CZ49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DA49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DB49" t="s">
+        <v>331</v>
+      </c>
+      <c r="DC49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DD49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DE49" t="s">
+        <v>335</v>
+      </c>
+      <c r="DF49" t="s">
+        <v>331</v>
+      </c>
+      <c r="DG49" t="s">
+        <v>331</v>
+      </c>
+      <c r="DH49" t="s">
+        <v>331</v>
+      </c>
+      <c r="EA49" t="s">
+        <v>315</v>
+      </c>
+      <c r="EB49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="BY50" t="s">
+        <v>360</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CE50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CG50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CJ50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CK50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CM50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CN50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CP50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CQ50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CR50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CS50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CT50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CU50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CV50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CW50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CX50" t="s">
+        <v>292</v>
+      </c>
+      <c r="CY50" t="s">
+        <v>360</v>
+      </c>
+      <c r="CZ50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DA50" t="s">
+        <v>360</v>
+      </c>
+      <c r="DB50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DC50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DD50" t="s">
+        <v>360</v>
+      </c>
+      <c r="DE50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DG50" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="M51" t="s">
+        <v>307</v>
+      </c>
+      <c r="N51" t="s">
+        <v>307</v>
+      </c>
+      <c r="O51" t="s">
+        <v>309</v>
+      </c>
+      <c r="P51" t="s">
+        <v>309</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CV51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CW51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CX51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CY51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CZ51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DA51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DB51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DC51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DE51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DF51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DG51" t="s">
+        <v>361</v>
+      </c>
+      <c r="DH51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AA32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="BY52" t="s">
+        <v>294</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CA52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CE52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CJ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CK52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CM52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CP52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CR52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CS52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CT52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CU52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CV52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CW52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CX52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CY52" t="s">
+        <v>294</v>
+      </c>
+      <c r="CZ52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DA52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DB52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DC52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DD52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DE52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DF52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DG52" t="s">
+        <v>294</v>
+      </c>
+      <c r="DH52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="BQ53" t="s">
+        <v>349</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>308</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CB53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CD53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CE53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CJ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CK53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CN53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CP53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CQ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CR53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CS53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CT53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CU53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CV53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CW53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CX53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CY53" t="s">
+        <v>308</v>
+      </c>
+      <c r="CZ53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DA53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DB53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DC53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DD53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DE53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DF53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DG53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DH53" t="s">
+        <v>308</v>
+      </c>
+      <c r="DZ53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AD32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="AU54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>342</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>344</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>345</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AG32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="AU56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>329</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>340</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>329</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>343</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AI32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU32" t="s">
+      <c r="C57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>344</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP58" t="s">
+        <v>348</v>
+      </c>
+      <c r="DN58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" t="s">
+        <v>289</v>
+      </c>
+      <c r="W59" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>329</v>
+      </c>
+      <c r="DN61" t="s">
+        <v>329</v>
+      </c>
+      <c r="EC61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>330</v>
+      </c>
+      <c r="DT62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>333</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AV32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AZ32" t="s">
+      <c r="C64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" t="s">
+        <v>293</v>
+      </c>
+      <c r="E65" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BA32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BC32" t="s">
+      <c r="C66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BD32" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>276</v>
-      </c>
-      <c r="BJ32" t="s">
+      <c r="C67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M68" t="s">
+        <v>287</v>
+      </c>
+      <c r="N68" t="s">
+        <v>287</v>
+      </c>
+      <c r="O68" t="s">
+        <v>287</v>
+      </c>
+      <c r="P68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BK32" t="s">
+      <c r="M69" t="s">
+        <v>308</v>
+      </c>
+      <c r="N69" t="s">
+        <v>308</v>
+      </c>
+      <c r="O69" t="s">
+        <v>308</v>
+      </c>
+      <c r="P69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BL32" t="s">
-        <v>280</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>245</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" t="s">
-        <v>235</v>
-      </c>
-      <c r="G33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" t="s">
-        <v>235</v>
-      </c>
-      <c r="I33" t="s">
-        <v>235</v>
-      </c>
-      <c r="J33" t="s">
-        <v>235</v>
-      </c>
-      <c r="L33" t="s">
-        <v>235</v>
-      </c>
-      <c r="M33" t="s">
-        <v>235</v>
-      </c>
-      <c r="N33" t="s">
-        <v>235</v>
-      </c>
-      <c r="O33" t="s">
-        <v>235</v>
-      </c>
-      <c r="P33" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>235</v>
-      </c>
-      <c r="R33" t="s">
-        <v>235</v>
-      </c>
-      <c r="S33" t="s">
-        <v>242</v>
-      </c>
-      <c r="T33" t="s">
-        <v>235</v>
-      </c>
-      <c r="U33" t="s">
-        <v>235</v>
-      </c>
-      <c r="V33" t="s">
-        <v>235</v>
-      </c>
-      <c r="W33" t="s">
-        <v>235</v>
-      </c>
-      <c r="X33" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" t="s">
-        <v>244</v>
-      </c>
-      <c r="H34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I34" t="s">
-        <v>244</v>
-      </c>
-      <c r="J34" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M34" t="s">
-        <v>244</v>
-      </c>
-      <c r="N34" t="s">
-        <v>244</v>
-      </c>
-      <c r="O34" t="s">
-        <v>244</v>
-      </c>
-      <c r="P34" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>244</v>
-      </c>
-      <c r="R34" t="s">
-        <v>244</v>
-      </c>
-      <c r="S34" t="s">
-        <v>244</v>
-      </c>
-      <c r="T34" t="s">
-        <v>244</v>
-      </c>
-      <c r="U34" t="s">
-        <v>244</v>
-      </c>
-      <c r="V34" t="s">
-        <v>244</v>
-      </c>
-      <c r="W34" t="s">
-        <v>244</v>
-      </c>
-      <c r="X34" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>244</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>244</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>244</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>277</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>277</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>277</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>236</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" t="s">
-        <v>238</v>
-      </c>
-      <c r="K36" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>267</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>270</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>274</v>
+      <c r="DY70" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
